--- a/exp-results/summary.xlsx
+++ b/exp-results/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smu/Workspace/Code/nsolver/exp-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ECCCAF-3459-CB4D-9A00-22C27DE1997D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DCC902-A7F4-0445-97B7-FF2CA5542740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="20340" windowHeight="17540" activeTab="1" xr2:uid="{9F457002-AB96-3E42-8724-9F0F100E080B}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" activeTab="1" xr2:uid="{9F457002-AB96-3E42-8724-9F0F100E080B}"/>
   </bookViews>
   <sheets>
     <sheet name="Opti" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>#Tasks</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>#Samples</t>
+  </si>
+  <si>
+    <t>Reluplex</t>
+  </si>
+  <si>
+    <t>DeepZ</t>
+  </si>
+  <si>
+    <t>DeepPoly</t>
+  </si>
+  <si>
+    <t>RefineZono</t>
+  </si>
+  <si>
+    <t>RefinePoly</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,11 +116,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,103 +441,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF378A-E0D8-974A-84FF-87BCE5465D81}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="Q1" sqref="Q1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1">
-        <v>45</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E1">
-        <v>39</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1.082175925925926E-2</v>
-      </c>
-      <c r="H1">
-        <v>43</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1">
-        <v>5.7523148148148143E-3</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>45</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>3.7037037037037035E-4</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>2.2222222222222223E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>2.1921296296296296E-2</v>
+        <v>1.082175925925926E-2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>1.9375E-2</v>
+        <v>5.7523148148148143E-3</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -518,45 +534,45 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="R2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>2.6620370370370372E-4</v>
+        <v>3.7037037037037035E-4</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3" s="1">
-        <v>2.6840277777777779E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>2.488425925925926E-3</v>
+        <v>2.1921296296296296E-2</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1">
-        <v>2.3958333333333336E-3</v>
+        <v>1.9375E-2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -577,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S3" s="1">
-        <v>3.3564814814814812E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -591,31 +607,31 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>2.7858796296296298E-2</v>
+        <v>2.6840277777777779E-2</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>9.4907407407407408E-4</v>
+        <v>2.488425925925926E-3</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>2.3958333333333336E-3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -647,34 +663,34 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>2.7858796296296298E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>9.4907407407407408E-4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.6203703703703703E-3</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -695,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>3.3564814814814812E-4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -792,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>6.9444444444444404E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -819,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1.1574074074074101E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -963,13 +979,13 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1.273148148148148E-4</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1001,7 +1017,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1010,57 +1026,57 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1.2997685185185183E-2</v>
+        <v>1.273148148148148E-4</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>3.8194444444444446E-4</v>
+        <v>1.1574074074074101E-5</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1075,51 +1091,51 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
-        <v>6.8634259259259256E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1">
-        <v>1.8518518518518518E-4</v>
+        <v>1.2997685185185183E-2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="M12" s="1">
-        <v>6.4120370370370364E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="P12" s="1">
-        <v>3.1481481481481482E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="R12">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1">
-        <v>1.9675925925925926E-4</v>
+        <v>3.8194444444444446E-4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1134,51 +1150,51 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>6.8634259259259256E-3</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>1.8518518518518518E-4</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M13" s="1">
-        <v>2.8703703703703703E-2</v>
+        <v>6.4120370370370364E-3</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P13" s="1">
-        <v>1.9490740740740743E-2</v>
+        <v>3.1481481481481482E-3</v>
       </c>
       <c r="Q13">
         <v>10</v>
       </c>
       <c r="R13">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S13" s="1">
-        <v>1.7361111111111112E-4</v>
+        <v>1.9675925925925926E-4</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1193,51 +1209,51 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1">
-        <v>2.9456018518518517E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J14" s="1">
-        <v>1.3854166666666666E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="1">
-        <v>2.9687500000000002E-2</v>
+        <v>2.8703703703703703E-2</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1.9490740740740743E-2</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S14" s="1">
-        <v>1.5046296296296297E-4</v>
+        <v>1.7361111111111112E-4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1252,28 +1268,28 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1">
-        <v>3.0995370370370371E-2</v>
+        <v>2.9456018518518517E-2</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J15" s="1">
-        <v>1.4652777777777778E-2</v>
+        <v>1.3854166666666666E-2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M15" s="1">
-        <v>3.1203703703703702E-2</v>
+        <v>2.9687500000000002E-2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1285,18 +1301,18 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="S15" s="1">
-        <v>2.627314814814815E-3</v>
+        <v>1.5046296296296297E-4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1311,28 +1327,28 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1">
-        <v>3.0173611111111113E-2</v>
+        <v>3.0995370370370371E-2</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1">
-        <v>1.4363425925925925E-2</v>
+        <v>1.4652777777777778E-2</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M16" s="1">
-        <v>3.0474537037037036E-2</v>
+        <v>3.1203703703703702E-2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1344,18 +1360,18 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S16" s="1">
-        <v>1.8171296296296297E-3</v>
+        <v>2.627314814814815E-3</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1370,28 +1386,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1">
-        <v>3.1655092592592596E-2</v>
+        <v>3.0173611111111113E-2</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J17" s="1">
-        <v>1.4780092592592595E-2</v>
+        <v>1.4363425925925925E-2</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M17" s="1">
-        <v>3.1759259259259258E-2</v>
+        <v>3.0474537037037036E-2</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1403,18 +1419,18 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="R17">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="S17" s="1">
-        <v>7.407407407407407E-4</v>
+        <v>1.8171296296296297E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1429,28 +1445,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1">
-        <v>3.1643518518518522E-2</v>
+        <v>3.1655092592592596E-2</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" s="1">
-        <v>1.4976851851851852E-2</v>
+        <v>1.4780092592592595E-2</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" s="1">
-        <v>3.1909722222222221E-2</v>
+        <v>3.1759259259259258E-2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1462,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="S18" s="1">
-        <v>2.1759259259259258E-3</v>
+        <v>7.407407407407407E-4</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1491,7 +1507,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>3.2002314814814817E-2</v>
+        <v>3.1643518518518522E-2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1500,7 +1516,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="1">
-        <v>1.511574074074074E-2</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1509,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="1">
-        <v>3.2280092592592589E-2</v>
+        <v>3.1909722222222221E-2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1527,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="1">
-        <v>2.1412037037037038E-3</v>
+        <v>2.1759259259259258E-3</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1544,54 +1560,54 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1">
-        <v>3.1481481481481482E-3</v>
+        <v>3.2002314814814817E-2</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="J20" s="1">
-        <v>3.2407407407407406E-4</v>
+        <v>1.511574074074074E-2</v>
       </c>
       <c r="K20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M20" s="1">
-        <v>2.488425925925926E-3</v>
+        <v>3.2280092592592589E-2</v>
       </c>
       <c r="N20">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>7.1296296296296307E-3</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" s="1">
-        <v>5.6712962962962956E-4</v>
+        <v>2.1412037037037038E-3</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1603,54 +1619,54 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
-        <v>1.9907407407407408E-3</v>
+        <v>3.1481481481481482E-3</v>
       </c>
       <c r="H21">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1">
-        <v>1.9675925925925926E-4</v>
+        <v>3.2407407407407406E-4</v>
       </c>
       <c r="K21">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M21" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>2.488425925925926E-3</v>
       </c>
       <c r="N21">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="P21" s="1">
-        <v>1.8981481481481482E-3</v>
+        <v>7.1296296296296307E-3</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>8.9120370370370362E-4</v>
+        <v>5.6712962962962956E-4</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1662,54 +1678,54 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
-        <v>4.4560185185185189E-3</v>
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="H22">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
-        <v>3.5879629629629635E-4</v>
+        <v>1.9675925925925926E-4</v>
       </c>
       <c r="K22">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M22" s="1">
-        <v>2.8009259259259259E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="N22">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1">
-        <v>5.8796296296296296E-3</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="Q22">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1">
-        <v>6.3657407407407402E-4</v>
+        <v>8.9120370370370362E-4</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1721,54 +1737,54 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>4.4560185185185189E-3</v>
       </c>
       <c r="H23">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1">
-        <v>1.0381944444444444E-2</v>
+        <v>3.5879629629629635E-4</v>
       </c>
       <c r="K23">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M23" s="1">
-        <v>1.1932870370370371E-2</v>
+        <v>2.8009259259259259E-3</v>
       </c>
       <c r="N23">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P23" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>5.8796296296296296E-3</v>
       </c>
       <c r="Q23">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="1">
-        <v>4.5717592592592589E-3</v>
+        <v>6.3657407407407402E-4</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1780,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1789,45 +1805,45 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0381944444444444E-2</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.1932870370370371E-2</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>1.4166666666666666E-2</v>
+        <v>4.5717592592592589E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1839,49 +1855,49 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1.2268518518518519E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>1.3888888888888889E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>1.7708333333333332E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1.1921296296296296E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R25">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1">
-        <v>6.9444444444444444E-5</v>
+        <v>1.4166666666666666E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1901,37 +1917,37 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.2268518518518519E-2</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M26" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.7708333333333332E-3</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P26" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.1921296296296296E-3</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -1940,12 +1956,12 @@
         <v>16</v>
       </c>
       <c r="S26" s="1">
-        <v>3.9351851851851852E-4</v>
+        <v>6.9444444444444444E-5</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1960,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>2.9212962962962965E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1972,39 +1988,39 @@
         <v>9</v>
       </c>
       <c r="J27" s="1">
-        <v>5.2083333333333333E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M27" s="1">
-        <v>3.1712962962962958E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P27" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S27" s="1">
-        <v>9.2592592592592588E-5</v>
+        <v>3.9351851851851852E-4</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2019,43 +2035,43 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1">
-        <v>3.6018518518518519E-2</v>
+        <v>2.9212962962962965E-2</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1">
-        <v>6.3657407407407402E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="M28" s="1">
-        <v>4.8379629629629632E-3</v>
+        <v>3.1712962962962958E-3</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="P28" s="1">
-        <v>1.2650462962962962E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="S28" s="1">
         <v>9.2592592592592588E-5</v>
@@ -2063,7 +2079,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2078,51 +2094,51 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G29" s="1">
-        <v>8.8657407407407417E-3</v>
+        <v>3.6018518518518519E-2</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J29" s="1">
-        <v>3.1250000000000001E-4</v>
+        <v>6.3657407407407402E-4</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M29" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>4.8379629629629632E-3</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P29" s="1">
-        <v>9.7337962962962977E-3</v>
+        <v>1.2650462962962962E-2</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="S29" s="1">
-        <v>1.3888888888888889E-4</v>
+        <v>9.2592592592592588E-5</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2137,51 +2153,51 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1">
-        <v>3.8310185185185183E-2</v>
+        <v>8.8657407407407417E-3</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J30" s="1">
-        <v>7.291666666666667E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M30" s="1">
-        <v>5.8217592592592592E-3</v>
+        <v>2.6620370370370374E-3</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P30" s="1">
-        <v>1.4849537037037036E-2</v>
+        <v>9.7337962962962977E-3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S30" s="1">
-        <v>1.0416666666666667E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2196,51 +2212,51 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G31" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>3.8310185185185183E-2</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J31" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>7.291666666666667E-4</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="M31" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>5.8217592592592592E-3</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P31" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.4849537037037036E-2</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S31" s="1">
-        <v>2.8935185185185189E-4</v>
+        <v>1.0416666666666667E-4</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2258,48 +2274,48 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="S32" s="1">
-        <v>4.8726851851851856E-3</v>
+        <v>2.8935185185185189E-4</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2347,18 +2363,18 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R33">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S33" s="1">
-        <v>8.773148148148148E-3</v>
+        <v>4.8726851851851856E-3</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2406,18 +2422,18 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="R34">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S34" s="1">
-        <v>7.8935185185185185E-3</v>
+        <v>8.773148148148148E-3</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2465,18 +2481,18 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="R35">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S35" s="1">
-        <v>2.0509259259259258E-2</v>
+        <v>7.8935185185185185E-3</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2524,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="R36">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="S36" s="1">
-        <v>4.6296296296296294E-5</v>
+        <v>2.0509259259259258E-2</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2583,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="R37">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S37" s="1">
         <v>4.6296296296296294E-5</v>
@@ -2594,253 +2610,347 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>62</v>
+      </c>
+      <c r="R38">
+        <v>24</v>
+      </c>
+      <c r="S38" s="1">
+        <v>4.6296296296296294E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
         <v>100</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>56</v>
       </c>
-      <c r="R38">
+      <c r="R39">
         <v>44</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S39" s="1">
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="2" customFormat="1">
-      <c r="A39" s="2">
-        <f t="shared" ref="A39:S39" si="0">SUM(A1:A38)</f>
+    <row r="40" spans="1:19" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:S40" si="0">SUM(A2:A39)</f>
         <v>2494</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>0.11233796296296296</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>1098</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G40" s="3">
         <f t="shared" si="0"/>
         <v>0.61740740740740729</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I40" s="2">
         <f t="shared" si="0"/>
         <v>1218</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J40" s="3">
         <f t="shared" si="0"/>
         <v>0.2736574074074074</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L40" s="2">
         <f t="shared" si="0"/>
         <v>1181</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M40" s="3">
         <f t="shared" si="0"/>
         <v>0.42666666666666669</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N40" s="2">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O40" s="2">
         <f t="shared" si="0"/>
         <v>556</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P40" s="3">
         <f t="shared" si="0"/>
         <v>0.2870833333333333</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q40" s="2">
         <f t="shared" si="0"/>
         <v>1492</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R40" s="2">
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S40" s="3">
         <f t="shared" si="0"/>
         <v>7.5972222222222219E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9119F07B-C1BB-9F43-BD61-D3139112E38B}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="L2" sqref="L2:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
         <v>45</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>45</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>11925</v>
+      </c>
+      <c r="E2" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>45</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>12600</v>
+      </c>
+      <c r="I2" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="H1">
+      <c r="J2">
         <v>45</v>
       </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>13140</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>36</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>36</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>11197</v>
+      </c>
+      <c r="E3" s="1">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>36</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>14239</v>
+      </c>
+      <c r="I3" s="1">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="H2">
+      <c r="J3">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="K3">
         <v>22</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L3">
+        <v>15195</v>
+      </c>
+      <c r="M3" s="1">
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.2407407407407406E-4</v>
-      </c>
-      <c r="E3">
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.2407407407407406E-4</v>
-      </c>
-      <c r="H3">
-        <v>42</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3.2407407407407406E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>42</v>
       </c>
@@ -2850,1154 +2960,1522 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>11130</v>
+      </c>
+      <c r="E4" s="1">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>42</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>11760</v>
+      </c>
+      <c r="I4" s="1">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>42</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>12264</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.2407407407407406E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>11130</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.2407407407407406E-4</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>11760</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.2407407407407406E-4</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12264</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.2407407407407406E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>265</v>
+      </c>
+      <c r="E6" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>280</v>
+      </c>
+      <c r="I6" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>292</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>265</v>
+      </c>
+      <c r="E7" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>280</v>
+      </c>
+      <c r="I7" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>292</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>265</v>
+      </c>
+      <c r="E8" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>280</v>
+      </c>
+      <c r="I8" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>292</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>265</v>
+      </c>
+      <c r="E9" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>280</v>
+      </c>
+      <c r="I9" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>292</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>265</v>
+      </c>
+      <c r="E10" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>280</v>
+      </c>
+      <c r="I10" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>292</v>
+      </c>
+      <c r="M10" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>265</v>
+      </c>
+      <c r="E11" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>280</v>
+      </c>
+      <c r="I11" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>292</v>
+      </c>
+      <c r="M11" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="12" spans="1:13">
+      <c r="A12">
         <v>98</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>96</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12">
+        <v>25587</v>
+      </c>
+      <c r="E12" s="1">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>96</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H12">
+        <v>27115</v>
+      </c>
+      <c r="I12" s="1">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="H11">
+      <c r="J12">
         <v>95</v>
       </c>
-      <c r="I11">
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L12">
+        <v>28281</v>
+      </c>
+      <c r="M12" s="1">
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="13" spans="1:13">
+      <c r="A13">
         <v>99</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>99</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>26246</v>
+      </c>
+      <c r="E13" s="1">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>99</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>27760</v>
+      </c>
+      <c r="I13" s="1">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="H12">
+      <c r="J13">
         <v>99</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>29457</v>
+      </c>
+      <c r="M13" s="1">
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>97</v>
-      </c>
-      <c r="B13">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="E13">
-        <v>92</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="H13">
-        <v>90</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.0416666666666667E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>95</v>
       </c>
       <c r="B14">
         <v>93</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.9675925925925926E-4</v>
-      </c>
-      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>27993</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="F14">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>29246</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="J14">
+        <v>90</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>26814</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.0416666666666667E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15">
         <v>93</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="H14">
-        <v>92</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.199074074074074E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>98</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
+        <v>24776</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="F15">
+        <v>93</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>26271</v>
+      </c>
+      <c r="I15" s="1">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E15">
+      <c r="J15">
+        <v>92</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>27004</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.199074074074074E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
         <v>98</v>
       </c>
-      <c r="F15">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="D16">
+        <v>26192</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="F16">
+        <v>98</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>27539</v>
+      </c>
+      <c r="I16" s="1">
         <v>2.199074074074074E-4</v>
       </c>
-      <c r="H15">
+      <c r="J16">
         <v>98</v>
       </c>
-      <c r="I15">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L16">
+        <v>28630</v>
+      </c>
+      <c r="M16" s="1">
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>97</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>96</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>25523</v>
+      </c>
+      <c r="E17" s="1">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>96</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>26909</v>
+      </c>
+      <c r="I17" s="1">
         <v>2.199074074074074E-4</v>
       </c>
-      <c r="H16">
+      <c r="J17">
         <v>96</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>28040</v>
+      </c>
+      <c r="M17" s="1">
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    <row r="18" spans="1:13">
+      <c r="A18">
         <v>99</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>98</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>26062</v>
+      </c>
+      <c r="E18" s="1">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>98</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>27536</v>
+      </c>
+      <c r="I18" s="1">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="H17">
+      <c r="J18">
         <v>97</v>
       </c>
-      <c r="I17">
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L18">
+        <v>28580</v>
+      </c>
+      <c r="M18" s="1">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.199074074074074E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>100</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>26500</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>28000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>29200</v>
+      </c>
+      <c r="M19" s="1">
         <v>2.199074074074074E-4</v>
       </c>
-      <c r="E19">
-        <v>99</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="H19">
-        <v>99</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2.199074074074074E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>100</v>
       </c>
       <c r="B20">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>31831</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.199074074074074E-4</v>
+      </c>
+      <c r="F20">
+        <v>99</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>27886</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="J20">
+        <v>99</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>28932</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.199074074074074E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
         <v>100</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>26871</v>
+      </c>
+      <c r="E21" s="1">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>99</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>28018</v>
+      </c>
+      <c r="I21" s="1">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="H20">
+      <c r="J21">
         <v>99</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>28943</v>
+      </c>
+      <c r="M21" s="1">
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="22" spans="1:13">
+      <c r="A22">
         <v>99</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>99</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>26266</v>
+      </c>
+      <c r="E22" s="1">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>99</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>27720</v>
+      </c>
+      <c r="I22" s="1">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="H21">
+      <c r="J22">
         <v>99</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>29567</v>
+      </c>
+      <c r="M22" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+    <row r="23" spans="1:13">
+      <c r="A23">
         <v>100</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>100</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>26500</v>
+      </c>
+      <c r="E23" s="1">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>100</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>28000</v>
+      </c>
+      <c r="I23" s="1">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="H22">
+      <c r="J23">
         <v>100</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>29200</v>
+      </c>
+      <c r="M23" s="1">
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+    <row r="24" spans="1:13">
+      <c r="A24">
         <v>95</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>95</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>25175</v>
+      </c>
+      <c r="E24" s="1">
         <v>1.7708333333333332E-3</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>95</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>26600</v>
+      </c>
+      <c r="I24" s="1">
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="H23">
+      <c r="J24">
         <v>95</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>27740</v>
+      </c>
+      <c r="M24" s="1">
         <v>1.9328703703703704E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
+    <row r="25" spans="1:13">
+      <c r="A25">
         <v>99</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>99</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>26716</v>
+      </c>
+      <c r="E25" s="1">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>98</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>28159</v>
+      </c>
+      <c r="I25" s="1">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="H24">
+      <c r="J25">
         <v>98</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>28626</v>
+      </c>
+      <c r="M25" s="1">
         <v>6.2847222222222228E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6.9444444444444444E-5</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25" s="1">
-        <v>6.9444444444444444E-5</v>
-      </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>9</v>
-      </c>
-      <c r="J25" s="1">
-        <v>6.9444444444444444E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>16</v>
       </c>
       <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>2998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>2551</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>2108</v>
+      </c>
+      <c r="M26" s="1">
+        <v>6.9444444444444444E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27">
+        <v>4352</v>
+      </c>
+      <c r="E27" s="1">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="E26">
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="G27">
         <v>6</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H27">
+        <v>3609</v>
+      </c>
+      <c r="I27" s="1">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="H26">
+      <c r="J27">
         <v>8</v>
       </c>
-      <c r="I26">
+      <c r="K27">
         <v>8</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L27">
+        <v>2974</v>
+      </c>
+      <c r="M27" s="1">
         <v>4.5138888888888892E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
+    <row r="28" spans="1:13">
+      <c r="A28">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28">
+        <v>4310</v>
+      </c>
+      <c r="E28" s="1">
         <v>1.0416666666666667E-4</v>
       </c>
-      <c r="E27">
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="F27">
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H28">
+        <v>2387</v>
+      </c>
+      <c r="I28" s="1">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="H27">
+      <c r="J28">
         <v>5</v>
       </c>
-      <c r="I27">
+      <c r="K28">
         <v>4</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L28">
+        <v>2795</v>
+      </c>
+      <c r="M28" s="1">
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+    <row r="29" spans="1:13">
+      <c r="A29">
         <v>59</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>52</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29">
+        <v>17286</v>
+      </c>
+      <c r="E29" s="1">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>49</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H29">
+        <v>19499</v>
+      </c>
+      <c r="I29" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="H28">
+      <c r="J29">
         <v>45</v>
       </c>
-      <c r="I28">
+      <c r="K29">
         <v>14</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L29">
+        <v>15111</v>
+      </c>
+      <c r="M29" s="1">
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+    <row r="30" spans="1:13">
+      <c r="A30">
         <v>53</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>50</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30">
+        <v>21673</v>
+      </c>
+      <c r="E30" s="1">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="E29">
+      <c r="F30">
         <v>49</v>
       </c>
-      <c r="F29">
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H30">
+        <v>15064</v>
+      </c>
+      <c r="I30" s="1">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="H29">
+      <c r="J30">
         <v>47</v>
       </c>
-      <c r="I29">
+      <c r="K30">
         <v>6</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L30">
+        <v>15277</v>
+      </c>
+      <c r="M30" s="1">
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
+    <row r="31" spans="1:13">
+      <c r="A31">
         <v>70</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>64</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31">
+        <v>26674</v>
+      </c>
+      <c r="E31" s="1">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="E30">
+      <c r="F31">
         <v>64</v>
       </c>
-      <c r="F30">
+      <c r="G31">
         <v>6</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H31">
+        <v>19496</v>
+      </c>
+      <c r="I31" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="H30">
+      <c r="J31">
         <v>63</v>
       </c>
-      <c r="I30">
+      <c r="K31">
         <v>7</v>
       </c>
-      <c r="J30" s="1">
+      <c r="L31">
+        <v>18791</v>
+      </c>
+      <c r="M31" s="1">
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="32" spans="1:13">
+      <c r="A32">
         <v>60</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>53</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>7</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32">
+        <v>21000</v>
+      </c>
+      <c r="E32" s="1">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="E31">
+      <c r="F32">
         <v>52</v>
       </c>
-      <c r="F31">
+      <c r="G32">
         <v>8</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H32">
+        <v>20247</v>
+      </c>
+      <c r="I32" s="1">
         <v>1.9328703703703704E-3</v>
       </c>
-      <c r="H31">
+      <c r="J32">
         <v>48</v>
       </c>
-      <c r="I31">
+      <c r="K32">
         <v>12</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L32">
+        <v>15159</v>
+      </c>
+      <c r="M32" s="1">
         <v>1.4930555555555556E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="33" spans="1:13">
+      <c r="A33">
         <v>94</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>91</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33">
+        <v>25545</v>
+      </c>
+      <c r="E33" s="1">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E32">
+      <c r="F33">
         <v>90</v>
       </c>
-      <c r="F32">
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H33">
+        <v>25702</v>
+      </c>
+      <c r="I33" s="1">
         <v>3.0092592592592588E-3</v>
       </c>
-      <c r="H32">
+      <c r="J33">
         <v>88</v>
       </c>
-      <c r="I32">
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="J32" s="1">
+      <c r="L33">
+        <v>26753</v>
+      </c>
+      <c r="M33" s="1">
         <v>3.645833333333333E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
+    <row r="34" spans="1:13">
+      <c r="A34">
         <v>93</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>93</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>25008</v>
+      </c>
+      <c r="E34" s="1">
         <v>3.0671296296296297E-3</v>
       </c>
-      <c r="E33">
+      <c r="F34">
         <v>93</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>27687</v>
+      </c>
+      <c r="I34" s="1">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="H33">
+      <c r="J34">
         <v>92</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>28406</v>
+      </c>
+      <c r="M34" s="1">
         <v>3.6805555555555554E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
+    <row r="35" spans="1:13">
+      <c r="A35">
         <v>96</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>96</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>25440</v>
+      </c>
+      <c r="E35" s="1">
         <v>3.3449074074074071E-3</v>
       </c>
-      <c r="E34">
+      <c r="F35">
         <v>96</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>26880</v>
+      </c>
+      <c r="I35" s="1">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="H34">
+      <c r="J35">
         <v>96</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>28032</v>
+      </c>
+      <c r="M35" s="1">
         <v>3.5879629629629629E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+    <row r="36" spans="1:13">
+      <c r="A36">
         <v>94</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>93</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>25357</v>
+      </c>
+      <c r="E36" s="1">
         <v>3.7847222222222223E-3</v>
       </c>
-      <c r="E35">
+      <c r="F36">
         <v>92</v>
       </c>
-      <c r="F35">
+      <c r="G36">
         <v>2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H36">
+        <v>27066</v>
+      </c>
+      <c r="I36" s="1">
         <v>3.9004629629629632E-3</v>
       </c>
-      <c r="H35">
+      <c r="J36">
         <v>92</v>
       </c>
-      <c r="I35">
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="J35" s="1">
+      <c r="L36">
+        <v>26947</v>
+      </c>
+      <c r="M36" s="1">
         <v>3.9351851851851857E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
+    <row r="37" spans="1:13">
+      <c r="A37">
         <v>99</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>91</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>8</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37">
+        <v>27171</v>
+      </c>
+      <c r="E37" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="E36">
+      <c r="F37">
         <v>89</v>
       </c>
-      <c r="F36">
+      <c r="G37">
         <v>10</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H37">
+        <v>32070</v>
+      </c>
+      <c r="I37" s="1">
         <v>3.4722222222222222E-5</v>
       </c>
-      <c r="H36">
+      <c r="J37">
         <v>87</v>
       </c>
-      <c r="I36">
+      <c r="K37">
         <v>12</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L37">
+        <v>25999</v>
+      </c>
+      <c r="M37" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
+    <row r="38" spans="1:13">
+      <c r="A38">
         <v>86</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>61</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>25</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38">
+        <v>26267</v>
+      </c>
+      <c r="E38" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="E37">
+      <c r="F38">
         <v>56</v>
       </c>
-      <c r="F37">
+      <c r="G38">
         <v>30</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H38">
+        <v>31122</v>
+      </c>
+      <c r="I38" s="1">
         <v>3.4722222222222222E-5</v>
       </c>
-      <c r="H37">
+      <c r="J38">
         <v>45</v>
       </c>
-      <c r="I37">
+      <c r="K38">
         <v>41</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L38">
+        <v>16536</v>
+      </c>
+      <c r="M38" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
+    <row r="39" spans="1:13">
+      <c r="A39">
         <v>100</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>64</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>36</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39">
+        <v>37583</v>
+      </c>
+      <c r="E39" s="1">
         <v>3.4722222222222222E-5</v>
       </c>
-      <c r="E38">
+      <c r="F39">
         <v>56</v>
       </c>
-      <c r="F38">
+      <c r="G39">
         <v>44</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H39">
+        <v>27490</v>
+      </c>
+      <c r="I39" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="H38">
+      <c r="J39">
         <v>51</v>
       </c>
-      <c r="I38">
+      <c r="K39">
         <v>49</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L39">
+        <v>16856</v>
+      </c>
+      <c r="M39" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1">
-      <c r="A39" s="2">
-        <f t="shared" ref="A39:J39" si="0">SUM(A1:A38)</f>
+    <row r="40" spans="1:13" s="2" customFormat="1">
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:M40" si="0">SUM(A2:A39)</f>
         <v>2494</v>
       </c>
-      <c r="B39" s="2">
-        <f>SUM(B1:B38)</f>
+      <c r="B40" s="2">
+        <f>SUM(B2:B39)</f>
         <v>2368</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>709874</v>
+      </c>
+      <c r="E40" s="3">
         <f t="shared" si="0"/>
         <v>2.8541666666666667E-2</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>2341</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G40" s="2">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H40" s="2">
+        <f t="shared" si="0"/>
+        <v>719668</v>
+      </c>
+      <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>2.9386574074074075E-2</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>2280</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="J39" s="3">
+      <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>695373</v>
+      </c>
+      <c r="M40" s="3">
         <f t="shared" si="0"/>
         <v>3.0300925925925926E-2</v>
       </c>

--- a/exp-results/summary.xlsx
+++ b/exp-results/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smu/Workspace/Code/nsolver/exp-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DCC902-A7F4-0445-97B7-FF2CA5542740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E92215E-3868-2C42-8CFD-9AB55413AAA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" activeTab="1" xr2:uid="{9F457002-AB96-3E42-8724-9F0F100E080B}"/>
+    <workbookView xWindow="-1020" yWindow="500" windowWidth="14860" windowHeight="17540" xr2:uid="{9F457002-AB96-3E42-8724-9F0F100E080B}"/>
   </bookViews>
   <sheets>
     <sheet name="Opti" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,13 +443,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF378A-E0D8-974A-84FF-87BCE5465D81}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>45</v>
       </c>
@@ -543,7 +543,7 @@
         <v>3.7037037037037035E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36</v>
       </c>
@@ -602,7 +602,7 @@
         <v>2.6620370370370372E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>42</v>
       </c>
@@ -661,7 +661,7 @@
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42</v>
       </c>
@@ -720,7 +720,7 @@
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
         <v>1.1574074074074101E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
         <v>1.1574074074074101E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1.1574074074074101E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1.1574074074074101E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>98</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>3.8194444444444446E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>99</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>97</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1.7361111111111112E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1.5046296296296297E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>2.627314814814815E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>97</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1.8171296296296297E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>99</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7.407407407407407E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>2.1759259259259258E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>2.1412037037037038E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>89</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S21" s="1">
         <v>5.6712962962962956E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>8.9120370370370362E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>6.3657407407407402E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>95</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>4.5717592592592589E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>99</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1.4166666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>16</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>3.9351851851851852E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>59</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>53</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>70</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>60</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>2.8935185185185189E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>4.8726851851851856E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>8.773148148148148E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>96</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>7.8935185185185185E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>94</v>
       </c>
@@ -2546,10 +2546,10 @@
         <v>50</v>
       </c>
       <c r="S36" s="1">
-        <v>2.0509259259259258E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>2.0625000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>99</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>86</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>100</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="2" customFormat="1">
+    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ref="A40:S40" si="0">SUM(A2:A39)</f>
         <v>2494</v>
@@ -2797,21 +2797,21 @@
       </c>
       <c r="R40" s="2">
         <f t="shared" si="0"/>
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="S40" s="3">
         <f t="shared" si="0"/>
-        <v>7.5972222222222219E-2</v>
+        <v>7.6087962962962968E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2821,13 +2821,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9119F07B-C1BB-9F43-BD61-D3139112E38B}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>45</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>42</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>98</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>99</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>97</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>95</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>97</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>99</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>99</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>95</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>1.9328703703703704E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>99</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>6.2847222222222228E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>16</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>4.5138888888888892E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>59</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>53</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>70</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>60</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>1.4930555555555556E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>94</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>3.645833333333333E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>3.6805555555555554E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>96</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>3.5879629629629629E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>94</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>3.9351851851851857E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>99</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>86</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>100</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1">
+    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ref="A40:M40" si="0">SUM(A2:A39)</f>
         <v>2494</v>
